--- a/FY15 Refugee Admissions Statistics.xlsx
+++ b/FY15 Refugee Admissions Statistics.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennychen/Google Drive/PROGRAMMING/D3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA040D4-44EC-E74D-B3BD-93C756E88CCF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="460" windowWidth="19640" windowHeight="16060" xr2:uid="{A6D01895-25F9-B547-8B75-D19BF86496E5}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Country of Chargeability</t>
   </si>
@@ -295,13 +292,223 @@
   </si>
   <si>
     <t>Admitted to the US</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>YEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +521,22 @@
       <color rgb="FF1E3351"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,15 +556,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -452,7 +683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -646,77 +877,79 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08FA2C1-82AF-8C4E-8CD1-7EC8BE67FFBB}">
-  <dimension ref="A1:N77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -727,16 +960,17 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
+      <c r="C3" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -745,11 +979,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -757,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -771,60 +1005,66 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>1186</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1">
         <v>46</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>19</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
       <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>82</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>39</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>63</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>81</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>151</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>77</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -836,60 +1076,63 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>270</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1">
         <v>69</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>39</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>19</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -898,31 +1141,34 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>8</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
+      <c r="C7" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -930,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -945,106 +1191,115 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>52</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>10</v>
       </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>7876</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="1">
         <v>625</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>379</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>386</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>241</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>288</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>448</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>554</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>798</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1302</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>879</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>824</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>1152</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1059,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1079,16 +1334,19 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1103,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1123,104 +1381,113 @@
       <c r="N11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>1596</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
         <v>90</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>94</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>44</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>133</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>266</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>129</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>45</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>39</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>74</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>81</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>123</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>626</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="1">
         <v>53</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>90</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>28</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>40</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>25</v>
-      </c>
-      <c r="H13" s="1">
-        <v>34</v>
       </c>
       <c r="I13" s="1">
         <v>34</v>
       </c>
       <c r="J13" s="1">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1">
         <v>50</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>29</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>133</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>39</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
+      <c r="C14" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1235,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1244,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1255,22 +1522,25 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
+      <c r="C15" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1288,80 +1558,86 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>7</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
         <v>6</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1370,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1387,60 +1663,66 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="C18" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>4</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
+      <c r="C19" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1461,30 +1743,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1505,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1519,37 +1804,40 @@
       <c r="N20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
+      <c r="C21" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1561,106 +1849,115 @@
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>79</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="1">
         <v>7</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>7</v>
       </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
       <c r="J22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
         <v>12</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
       <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>18</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>173</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1">
         <v>9</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
       <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>30</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>36</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>41</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>4</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>6</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>18</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
+      <c r="C24" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1678,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -1693,36 +1990,39 @@
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
+      <c r="C25" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -1739,60 +2039,66 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="2">
         <v>8858</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1">
         <v>871</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>985</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>945</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>735</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>408</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>481</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>568</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>556</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>677</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>818</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>598</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>1216</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1816,74 +2122,80 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="2">
         <v>1578</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="1">
         <v>90</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>40</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>98</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>65</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>59</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>78</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>84</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>65</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>89</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>194</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>285</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
+      <c r="C29" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1915,63 +2227,69 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="1">
         <v>67</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>14</v>
       </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
       <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
         <v>3</v>
       </c>
-      <c r="G30" s="1">
-        <v>2</v>
-      </c>
       <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
         <v>11</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>8</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
       <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <v>7</v>
       </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
       <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
-        <v>2</v>
+      <c r="C31" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1980,171 +2298,180 @@
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="2">
         <v>22472</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>1872</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>1721</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>1578</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>1265</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>1094</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>1321</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>1381</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>1602</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>2283</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>2287</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>1983</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>4085</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="2">
         <v>18386</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="2">
         <v>1240</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>1290</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>1159</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>1432</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>1325</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>1350</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>1244</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>1024</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>1479</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>1078</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>1210</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>4555</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="1">
         <v>30</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>3</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
         <v>3</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
+      <c r="C35" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -2177,30 +2504,33 @@
         <v>0</v>
       </c>
       <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>15</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
+      <c r="C36" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2209,128 +2539,134 @@
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
         <v>4</v>
       </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
       <c r="N36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
         <v>4</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>7</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>3</v>
-      </c>
-      <c r="K37" s="1">
-        <v>4</v>
       </c>
       <c r="L37" s="1">
         <v>4</v>
       </c>
       <c r="M37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>18469</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>1248</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>1301</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>1167</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>1438</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>1326</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>1357</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>1254</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>1030</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>1485</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>1086</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>1214</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>4563</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="1">
         <v>49</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="1">
         <v>14</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>16</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
@@ -2338,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
@@ -2353,109 +2689,118 @@
         <v>0</v>
       </c>
       <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="1">
         <v>18</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1">
         <v>6</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <v>3</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>4</v>
       </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="1">
         <v>98</v>
       </c>
-      <c r="C41" s="1">
-        <v>2</v>
+      <c r="C41" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>16</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>19</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>11</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>7</v>
       </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
       <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
         <v>17</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>10</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>4</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>7</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="1">
         <v>9</v>
       </c>
-      <c r="C42" s="1">
-        <v>2</v>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2467,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
         <v>5</v>
       </c>
-      <c r="I42" s="1">
-        <v>2</v>
-      </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2487,64 +2832,70 @@
       <c r="N42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="1">
         <v>58</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1">
         <v>12</v>
       </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
       <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
         <v>8</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>4</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>11</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>7</v>
       </c>
-      <c r="I43" s="1">
-        <v>2</v>
-      </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
         <v>4</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>3</v>
       </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
       <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="1">
         <v>17</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1">
         <v>9</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
@@ -2558,77 +2909,83 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
         <v>3</v>
       </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
       <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
         <v>5</v>
       </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
       <c r="M44" s="1">
         <v>0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="1">
         <v>333</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1">
         <v>28</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>16</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>68</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>44</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>14</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>47</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>29</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>17</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>38</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>6</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <v>12</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
+      <c r="C46" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -2652,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -2663,60 +3020,66 @@
       <c r="N46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="1">
         <v>281</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1">
         <v>10</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>30</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>26</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>22</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>25</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>10</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>31</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>43</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>21</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>13</v>
-      </c>
-      <c r="M47" s="1">
-        <v>25</v>
       </c>
       <c r="N47" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O47" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="1">
         <v>5</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
+      <c r="C48" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -2737,11 +3100,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
         <v>5</v>
       </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
       <c r="L48" s="1">
         <v>0</v>
       </c>
@@ -2751,85 +3114,91 @@
       <c r="N48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="2">
         <v>1451</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1">
         <v>102</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>79</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>73</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>130</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>161</v>
-      </c>
-      <c r="H49" s="1">
-        <v>143</v>
       </c>
       <c r="I49" s="1">
         <v>143</v>
       </c>
       <c r="J49" s="1">
+        <v>143</v>
+      </c>
+      <c r="K49" s="1">
         <v>94</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>102</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>116</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>90</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B50" s="1">
         <v>43</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="1">
         <v>11</v>
       </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
         <v>9</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>3</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>4</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>5</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>4</v>
       </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
       <c r="L50" s="1">
         <v>0</v>
       </c>
@@ -2837,150 +3206,159 @@
         <v>0</v>
       </c>
       <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B51" s="2">
         <v>2363</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>196</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>132</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>209</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>231</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>229</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>223</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>220</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>187</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>183</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>143</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <v>134</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="1">
         <v>521</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="1">
         <v>175</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>35</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>8</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>55</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
       <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
         <v>46</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>89</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>3</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>25</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>45</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <v>11</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>1527</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="1">
         <v>267</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>152</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>141</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>206</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>56</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>150</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>121</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>106</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>136</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>93</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>48</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
+      <c r="C54" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -2998,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -3015,16 +3393,19 @@
       <c r="N54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
+      <c r="C55" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -3033,10 +3414,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -3059,104 +3440,110 @@
       <c r="N55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B56" s="2">
         <v>2050</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>442</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>187</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>149</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>262</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>56</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>196</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>211</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>109</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>161</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>138</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N56" s="1">
         <v>59</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B57" s="1">
         <v>910</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="1">
         <v>47</v>
-      </c>
-      <c r="D57" s="1">
-        <v>44</v>
       </c>
       <c r="E57" s="1">
         <v>44</v>
       </c>
       <c r="F57" s="1">
+        <v>44</v>
+      </c>
+      <c r="G57" s="1">
         <v>43</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>57</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>119</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>96</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>61</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>69</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>89</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <v>75</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
+      <c r="C58" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -3174,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
@@ -3186,109 +3573,118 @@
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B59" s="2">
         <v>5775</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="1">
         <v>370</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>500</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>429</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>342</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>427</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>455</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>326</v>
       </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
       <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <v>689</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>749</v>
       </c>
-      <c r="M59" s="1">
+      <c r="N59" s="1">
         <v>921</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="1">
         <v>13</v>
       </c>
-      <c r="C60" s="1">
-        <v>2</v>
+      <c r="C60" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1">
         <v>3</v>
       </c>
-      <c r="J60" s="1">
-        <v>0</v>
-      </c>
       <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
         <v>3</v>
       </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
       <c r="M60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
+      <c r="C61" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -3321,106 +3717,115 @@
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="2">
         <v>3109</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="1">
         <v>309</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>148</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>190</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>310</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>58</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>210</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>249</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>213</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>278</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>200</v>
       </c>
-      <c r="M62" s="1">
+      <c r="N62" s="1">
         <v>337</v>
       </c>
-      <c r="N62" s="1">
+      <c r="O62" s="1">
         <v>607</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="2">
         <v>12676</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="2">
         <v>1790</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>1573</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>1316</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>1585</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>524</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>735</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>706</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>554</v>
       </c>
-      <c r="K63" s="1">
+      <c r="L63" s="1">
         <v>573</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>706</v>
       </c>
-      <c r="M63" s="1">
+      <c r="N63" s="1">
         <v>836</v>
       </c>
-      <c r="N63" s="2">
+      <c r="O63" s="2">
         <v>1778</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
+      <c r="C64" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -3435,19 +3840,19 @@
         <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="1">
         <v>0</v>
@@ -3455,28 +3860,31 @@
       <c r="N64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
       </c>
-      <c r="C65" s="1">
-        <v>2</v>
+      <c r="C65" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3499,23 +3907,26 @@
       <c r="N65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B66" s="1">
         <v>3</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
+      <c r="C66" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
@@ -3543,148 +3954,160 @@
       <c r="N66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="1">
         <v>26</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
+      <c r="C67" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
         <v>3</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>4</v>
       </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
       <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
         <v>4</v>
       </c>
-      <c r="J67" s="1">
-        <v>1</v>
-      </c>
       <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
         <v>6</v>
       </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
       <c r="M67" s="1">
         <v>0</v>
       </c>
       <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B68" s="1">
         <v>159</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
+      <c r="C68" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
         <v>5</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>8</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>5</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>7</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>9</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>15</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <v>47</v>
       </c>
-      <c r="K68" s="1">
+      <c r="L68" s="1">
         <v>19</v>
       </c>
-      <c r="L68" s="1">
+      <c r="M68" s="1">
         <v>18</v>
       </c>
-      <c r="M68" s="1">
+      <c r="N68" s="1">
         <v>5</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O68" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="1">
         <v>99</v>
       </c>
-      <c r="C69" s="1">
-        <v>10</v>
+      <c r="C69" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D69" s="1">
         <v>10</v>
       </c>
       <c r="E69" s="1">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1">
         <v>9</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>17</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>12</v>
       </c>
-      <c r="H69" s="1">
-        <v>2</v>
-      </c>
       <c r="I69" s="1">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
         <v>18</v>
       </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
       <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
         <v>14</v>
       </c>
-      <c r="L69" s="1">
-        <v>1</v>
-      </c>
       <c r="M69" s="1">
         <v>1</v>
       </c>
       <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B70" s="1">
         <v>3</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
+      <c r="C70" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -3705,11 +4128,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
         <v>3</v>
       </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
       <c r="L70" s="1">
         <v>0</v>
       </c>
@@ -3719,104 +4142,113 @@
       <c r="N70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="1">
         <v>89</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="1">
         <v>8</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
       <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
       <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
         <v>10</v>
       </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
       <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
         <v>17</v>
       </c>
-      <c r="J71" s="1">
-        <v>1</v>
-      </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
         <v>6</v>
       </c>
-      <c r="M71" s="1">
-        <v>1</v>
-      </c>
       <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B72" s="2">
         <v>1682</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="1">
         <v>51</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>61</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>52</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>85</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>110</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>152</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>140</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K72" s="1">
         <v>50</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>157</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>184</v>
       </c>
-      <c r="M72" s="1">
+      <c r="N72" s="1">
         <v>251</v>
       </c>
-      <c r="N72" s="1">
+      <c r="O72" s="1">
         <v>389</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B73" s="1">
         <v>7</v>
       </c>
-      <c r="C73" s="1">
-        <v>0</v>
+      <c r="C73" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -3825,16 +4257,16 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <v>4</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
       <c r="H73" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -3849,18 +4281,21 @@
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
       </c>
-      <c r="C74" s="1">
-        <v>0</v>
+      <c r="C74" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -3869,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3895,34 +4330,37 @@
       <c r="N74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B75" s="1">
         <v>16</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="1">
         <v>4</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>7</v>
       </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
@@ -3937,98 +4375,107 @@
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B76" s="2">
         <v>24579</v>
       </c>
-      <c r="C76" s="2">
+      <c r="D76" s="2">
         <v>2594</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>2353</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>2058</v>
       </c>
-      <c r="F76" s="2">
+      <c r="G76" s="2">
         <v>2400</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>1209</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>1689</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <v>1575</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K76" s="1">
         <v>930</v>
       </c>
-      <c r="K76" s="2">
+      <c r="L76" s="2">
         <v>1809</v>
       </c>
-      <c r="L76" s="2">
+      <c r="M76" s="2">
         <v>1953</v>
       </c>
-      <c r="M76" s="2">
+      <c r="N76" s="2">
         <v>2430</v>
       </c>
-      <c r="N76" s="2">
+      <c r="O76" s="2">
         <v>3579</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B77" s="2">
         <v>69933</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" s="2">
         <v>6352</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>5694</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>5161</v>
       </c>
-      <c r="F77" s="2">
+      <c r="G77" s="2">
         <v>5596</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>3914</v>
       </c>
-      <c r="H77" s="2">
+      <c r="I77" s="2">
         <v>4786</v>
       </c>
-      <c r="I77" s="2">
+      <c r="J77" s="2">
         <v>4641</v>
       </c>
-      <c r="J77" s="2">
+      <c r="K77" s="2">
         <v>3858</v>
       </c>
-      <c r="K77" s="2">
+      <c r="L77" s="2">
         <v>5921</v>
       </c>
-      <c r="L77" s="1">
+      <c r="M77" s="1">
         <v>5607</v>
       </c>
-      <c r="M77" s="1">
+      <c r="N77" s="1">
         <v>5820</v>
       </c>
-      <c r="N77" s="1">
+      <c r="O77" s="1">
         <v>12583</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>